--- a/guide41_course.xlsx
+++ b/guide41_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F00C1F-C2A3-48D6-9CD7-D50589CB8A6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E321AF90-359E-44B2-8994-057F72591319}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="11775" activeTab="6" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="11775" activeTab="7" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -32,16 +32,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
-  <si>
-    <t>description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
   <si>
     <t>header1</t>
   </si>
   <si>
     <t>コース管理の基本操作</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>template</t>
@@ -53,27 +50,20 @@
     <t>title</t>
   </si>
   <si>
-    <t>広大moodle マニュアル guide41-5</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>好みのコーステンプレートの［このテンプレートを使用する］をクリックします</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>chartn</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>course1.png</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>確認画面が表示されるので［インポート］をクリックします</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>course2.png</t>
@@ -83,65 +73,65 @@
     <rPh sb="28" eb="30">
       <t>ヘンシュウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>コースに資料を掲載したり、課題や小テストを作成したりするためには、画面右上の［編集モードの開始］をクリックして、編集モードを ON にする必要があります。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>course3.png</t>
   </si>
   <si>
     <t>編集モードになると画面上に編集アイコンなどが表示されます。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>course4.png</t>
   </si>
   <si>
     <t>編集モードを OFF にする時は、［編集モードの終了］をクリックします。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>&lt;h5&gt;&lt;a name="section"&gt;&lt;/a&gt;セクション&lt;/h5&gt;</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>提供する教材を整理するために用意されている領域をセクションと呼びます。
 今回選択したテンプレートには「コメントシート」と「教材」という 2 つのセクションがあります。
 編集モードを開始すると、セクションを編集したり、追加することができるようになります。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>course5.png</t>
   </si>
   <si>
     <t>上記は、flexible sections format のコースセクションのアイコンですが、以下の機能を示します。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>はじめに用意されているセクションの名前を変更したい場合は、セクション名の右にある鉛筆アイコンをクリックして名前を入力し、エンターキーを押します。
 また［編集］の右▼をクリックして［セクションを編集する］を選択し、名称変更の他、説明文を加えることもできます。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>course6.png</t>
   </si>
   <si>
     <t>※ セクション名のボックスがグレーになっている時は、カスタムをチェックすると変更できます。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>course7.png</t>
   </si>
   <si>
     <t>設定した内容がコースに反映されます。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>セクション名の左横の右向きの三角は、このセクションが折りたたまれていることを表しています。クリックすると開くことができます。セクション名をクリックすると、セクションの中を見ることができます。また折りたたまれたセクションは、フォルダのように扱うことができます。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>course8.png</t>
@@ -151,7 +141,7 @@
   </si>
   <si>
     <t>[+ セクションを追加する]をクリックすると、セクションを追加することができます。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>course10.png</t>
@@ -160,23 +150,23 @@
     <t>新しいセクションのデフォルトの名前は「トピック n」（そのコースの n 番目のセクションの場合）で、開いた状態で作成されます。
 またセクションの中にはサブセクションを作成することもできます。
 授業回ごと、単元ごとなどに教材を分類するなど、お好みの方法でご利用ください。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>course11.png</t>
   </si>
   <si>
     <t>&lt;h5&gt;&lt;a name="course setting"&gt;&lt;/a&gt;コース設定&lt;/h5&gt;</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>コースの名前や開講期間などを変更することができます。
 画面右の歯車アイコンの▼をクリックして表示されるメニューで［設定を編集する］をクリックしてください。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>coursesetting1.png</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>一括作成されたコースの名称等は以下のルールに従ってつけられています。
@@ -186,7 +176,7 @@
 例）「2022_23_BI306002」
 コースカテゴリ：2022 年の直下ではなく下位のコースカテゴリと紐づけてください。
 コース ID ナンバー：編集できません。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>coursesetting2.png</t>
@@ -194,11 +184,11 @@
   <si>
     <t xml:space="preserve">ナビゲーションドロワーにある［参加者］をクリックすると、コースに登録されている学生・教職員を一覧することができます。
 </t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>participant1.png</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">コースに登録されている学生・教職員には、コースロールが割り当てられます。このコースロールによって、各人がコースで何ができるのかが決まります。
@@ -210,13 +200,13 @@
 ・ＴＡ
 ・ＴＡ（作成補助）
 </t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>&lt;h4&gt;&lt;a name="TA"&gt;&lt;/a&gt;コースにTAを登録する&lt;/h4&gt;
 「もみじ」と連携したコースであれば、主担当教員、副担当教員、世話教員、履修登録した学生は自動的に登録されますが、TA や授業を補助する職員は自動登録されません。したがって、TA や授業を補助する職員は、教員がコースで登録する必要があります。
 ここではその登録方法を説明します。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ナビゲーションドロワーの［参加者］をクリックします</t>
@@ -229,11 +219,11 @@
   </si>
   <si>
     <t>［ユーザを選択する］の検索欄に登録したい人の広大 ID または氏名を入力し、表示される候補の中から、登録したい人を選択します</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>［ロールを割り当てる］のロール選択欄をクリックし、表示された候補の中で、学生を登録する場合は TA、職員を登録する場合は学生支援職員を選択します</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>選択内容を確認して、［ユーザを登録する］をクリックします</t>
@@ -249,14 +239,14 @@
   </si>
   <si>
     <t>追加もしくは変更したいロールをクリックし、削除の場合はロール名左側の×をクリックします</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>participant5.png</t>
   </si>
   <si>
     <t>変更を保存する場合は アイコンをクリックし、変更をキャンセルする場合は×をクリックします</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>participant6.png</t>
@@ -273,11 +263,11 @@
 ここではグループ作成の方法をご説明します。
 グループでは、メンバー間での共同作業をしたり、異なるグループのメンバーやその提出やフォーラム投稿を見えなくするなどの作用があります。
 </t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>右上の歯車マークをクリックし、表示されたメニューで［グループ］をクリックします</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>participant8.png</t>
@@ -298,7 +288,7 @@
   <si>
     <t>ここではグループメンバーを手動登録する方法を説明します。
 左側のボックスでメンバーを登録したいグループをクリックして選択し、右側のボックス下の［ユーザを追加/削除する］をクリックします</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>participant12.png</t>
@@ -367,7 +357,7 @@
       </rPr>
       <t>］をクリックしま</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>participant13.png</t>
@@ -401,19 +391,19 @@
     <rPh sb="29" eb="31">
       <t>ソウサ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>&lt;h3&gt;コース管理の基本操作&lt;/h3&gt;&lt;br&gt;
 【要編集】&lt;br &gt;</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>コーステンプレートを選択する</t>
   </si>
   <si>
     <t>はじめてコースを開くと、いくつかのコーステンプレートからコースフォーマットを選択するように求められます。好みのコーステンプレートを選択してください。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>コースの編集をする</t>
@@ -435,25 +425,24 @@
   </si>
   <si>
     <t>ここではグループを手動で作成する方法を説明します。</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大moodle マニュアル guide41-course</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -543,46 +532,40 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -902,7 +885,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -912,49 +895,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="37.5">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="37.5">
-      <c r="A3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2" ht="54">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27">
+      <c r="B6" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27">
-      <c r="B6" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="13"/>
+      <c r="B7" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -962,342 +945,328 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AAC137-94F7-4C20-9279-DE89D329BEF5}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="103.875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>75</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="27">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="27">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FA534F-CDD8-4B82-B6F5-2AEC7D53530C}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="103.875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="27">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="27">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="8"/>
+      <c r="C8" s="1"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="40.5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="40.5">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="40.5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="40.5">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="40.5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="40.5">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="40.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="40.5">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="8" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="27">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27">
+    <row r="21" spans="1:7" ht="108">
       <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="108">
-      <c r="A22" s="1"/>
-      <c r="B22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1305,76 +1274,69 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="103.875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="27">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="27">
+      <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="135">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="135">
-      <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1382,108 +1344,101 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="103.875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="54">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="54">
+      <c r="B5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="27">
+      <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="27">
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1491,100 +1446,93 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550A206-2A47-42FD-A6A0-0D0BE341BE00}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="103.875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>80</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1592,115 +1540,108 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="103.875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>81</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="94.5">
-      <c r="B6" s="10" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="94.5">
+      <c r="B5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="10"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="1:4" ht="27">
+      <c r="B11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27">
-      <c r="B12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1708,125 +1649,118 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="103.875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="27">
-      <c r="B6" s="10" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="27">
+      <c r="B5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="B6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="B7" s="10" t="s">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="G9" s="8"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="G10" s="8"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="G11" s="8"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="G12" s="8"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="G13" s="8"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="G14" s="8"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="G15" s="8"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="G16" s="8"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="8"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="7:7">
-      <c r="G19" s="8"/>
+      <c r="G18" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/guide41_course.xlsx
+++ b/guide41_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E321AF90-359E-44B2-8994-057F72591319}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CE0BC6-E7E8-4D79-93B0-C57321CCE1C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="11775" activeTab="7" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
@@ -69,13 +69,6 @@
     <t>course2.png</t>
   </si>
   <si>
-    <t>&lt;h5&gt;&lt;a name="edit mode"&gt;&lt;/a&gt;編集モード&lt;/h5&gt;</t>
-    <rPh sb="28" eb="30">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コースに資料を掲載したり、課題や小テストを作成したりするためには、画面右上の［編集モードの開始］をクリックして、編集モードを ON にする必要があります。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -154,10 +147,6 @@
   </si>
   <si>
     <t>course11.png</t>
-  </si>
-  <si>
-    <t>&lt;h5&gt;&lt;a name="course setting"&gt;&lt;/a&gt;コース設定&lt;/h5&gt;</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>コースの名前や開講期間などを変更することができます。
@@ -203,12 +192,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h4&gt;&lt;a name="TA"&gt;&lt;/a&gt;コースにTAを登録する&lt;/h4&gt;
-「もみじ」と連携したコースであれば、主担当教員、副担当教員、世話教員、履修登録した学生は自動的に登録されますが、TA や授業を補助する職員は自動登録されません。したがって、TA や授業を補助する職員は、教員がコースで登録する必要があります。
-ここではその登録方法を説明します。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ナビゲーションドロワーの［参加者］をクリックします</t>
   </si>
   <si>
@@ -256,14 +239,6 @@
   </si>
   <si>
     <t>participant7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h4&gt;&lt;a name="group management"&gt;&lt;/a&gt;グループ管理&lt;/h4&gt;
-moodle のコースでは学生をグループ分けすることができます。そうすることで、グループワークをさせたり、グループごとに異なる教材を提示したりすることが可能です。
-ここではグループ作成の方法をご説明します。
-グループでは、メンバー間での共同作業をしたり、異なるグループのメンバーやその提出やフォーラム投稿を見えなくするなどの作用があります。
-</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>右上の歯車マークをクリックし、表示されたメニューで［グループ］をクリックします</t>
@@ -433,6 +408,28 @@
       <t xml:space="preserve">ヒロダイ </t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="edit mode"&gt;&lt;/a&gt;編集モード&lt;/h3&gt;</t>
+    <rPh sb="28" eb="30">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="course setting"&gt;&lt;/a&gt;コース設定&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「もみじ」と連携したコースであれば、主担当教員、副担当教員、世話教員、履修登録した学生は自動的に登録されますが、TA や授業を補助する職員は自動登録されません。したがって、TA や授業を補助する職員は、教員がコースで登録する必要があります。
+ここではその登録方法を説明します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moodle のコースでは学生をグループ分けすることができます。そうすることで、グループワークをさせたり、グループごとに異なる教材を提示したりすることが可能です。
+ここではグループ作成の方法をご説明します。
+グループでは、メンバー間での共同作業をしたり、異なるグループのメンバーやその提出やフォーラム投稿を見えなくするなどの作用があります。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -907,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="37.5">
@@ -915,7 +912,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -925,12 +922,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27">
       <c r="B6" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -945,713 +942,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AAC137-94F7-4C20-9279-DE89D329BEF5}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="27">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FA534F-CDD8-4B82-B6F5-2AEC7D53530C}">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="27">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="40.5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="40.5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="40.5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="40.5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="27">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="108">
-      <c r="A21" s="1"/>
-      <c r="B21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="27">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="135">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="54">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="27">
-      <c r="B9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550A206-2A47-42FD-A6A0-0D0BE341BE00}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="94.5">
-      <c r="B5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="8"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27">
-      <c r="B11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1667,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1683,50 +976,774 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="27">
-      <c r="B5" s="8" t="s">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="27">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FA534F-CDD8-4B82-B6F5-2AEC7D53530C}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="27">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="40.5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="40.5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="40.5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="27">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="108">
+      <c r="A22" s="1"/>
+      <c r="B22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="27">
+      <c r="A6" s="1"/>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="135">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="40.5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="27">
+      <c r="B10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550A206-2A47-42FD-A6A0-0D0BE341BE00}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="67.5">
+      <c r="B6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
+      <c r="B11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="27">
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="B7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="B6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7">
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
@@ -1758,6 +1775,9 @@
     </row>
     <row r="18" spans="7:7">
       <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/guide41_course.xlsx
+++ b/guide41_course.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CE0BC6-E7E8-4D79-93B0-C57321CCE1C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DD8A86-5664-424A-86FE-B0731D380F0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="11775" activeTab="7" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="17295" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t>header1</t>
   </si>
@@ -69,132 +69,44 @@
     <t>course2.png</t>
   </si>
   <si>
-    <t>コースに資料を掲載したり、課題や小テストを作成したりするためには、画面右上の［編集モードの開始］をクリックして、編集モードを ON にする必要があります。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>course3.png</t>
   </si>
   <si>
-    <t>編集モードになると画面上に編集アイコンなどが表示されます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>course4.png</t>
   </si>
   <si>
-    <t>編集モードを OFF にする時は、［編集モードの終了］をクリックします。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h5&gt;&lt;a name="section"&gt;&lt;/a&gt;セクション&lt;/h5&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>提供する教材を整理するために用意されている領域をセクションと呼びます。
-今回選択したテンプレートには「コメントシート」と「教材」という 2 つのセクションがあります。
-編集モードを開始すると、セクションを編集したり、追加することができるようになります。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>course5.png</t>
   </si>
   <si>
-    <t>上記は、flexible sections format のコースセクションのアイコンですが、以下の機能を示します。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>はじめに用意されているセクションの名前を変更したい場合は、セクション名の右にある鉛筆アイコンをクリックして名前を入力し、エンターキーを押します。
-また［編集］の右▼をクリックして［セクションを編集する］を選択し、名称変更の他、説明文を加えることもできます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>course6.png</t>
   </si>
   <si>
-    <t>※ セクション名のボックスがグレーになっている時は、カスタムをチェックすると変更できます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>course7.png</t>
   </si>
   <si>
-    <t>設定した内容がコースに反映されます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セクション名の左横の右向きの三角は、このセクションが折りたたまれていることを表しています。クリックすると開くことができます。セクション名をクリックすると、セクションの中を見ることができます。また折りたたまれたセクションは、フォルダのように扱うことができます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>course8.png</t>
   </si>
   <si>
     <t>course9.png</t>
   </si>
   <si>
-    <t>[+ セクションを追加する]をクリックすると、セクションを追加することができます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>course10.png</t>
   </si>
   <si>
-    <t>新しいセクションのデフォルトの名前は「トピック n」（そのコースの n 番目のセクションの場合）で、開いた状態で作成されます。
-またセクションの中にはサブセクションを作成することもできます。
-授業回ごと、単元ごとなどに教材を分類するなど、お好みの方法でご利用ください。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>course11.png</t>
   </si>
   <si>
-    <t>コースの名前や開講期間などを変更することができます。
-画面右の歯車アイコンの▼をクリックして表示されるメニューで［設定を編集する］をクリックしてください。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>coursesetting1.png</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一括作成されたコースの名称等は以下のルールに従ってつけられています。
-コース名：授業名＋半角 SP＋年度＋半角 SP＋時間割コード(英数字 8 ケタ)となります。
-例）「野外考古学実習Ｃ 2022 BI306002」
-コース省略名：年度(数字 4 桁)_部局コード(数字 2 桁)_時間割コード(英数字 8 ケタ)となります。
-例）「2022_23_BI306002」
-コースカテゴリ：2022 年の直下ではなく下位のコースカテゴリと紐づけてください。
-コース ID ナンバー：編集できません。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>coursesetting2.png</t>
   </si>
   <si>
-    <t xml:space="preserve">ナビゲーションドロワーにある［参加者］をクリックすると、コースに登録されている学生・教職員を一覧することができます。
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>participant1.png</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">コースに登録されている学生・教職員には、コースロールが割り当てられます。このコースロールによって、各人がコースで何ができるのかが決まります。
-広大 moodle に用意されているコースロールは、以下の通りです。
-・主担当教員
-・世話教員
-・副担当教員
-・学生支援職員
-・ＴＡ
-・ＴＡ（作成補助）
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ナビゲーションドロワーの［参加者］をクリックします</t>
-  </si>
-  <si>
     <t>［ユーザを登録する］をクリックします</t>
   </si>
   <si>
@@ -209,15 +121,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>選択内容を確認して、［ユーザを登録する］をクリックします</t>
-  </si>
-  <si>
     <t>participant3.png</t>
   </si>
   <si>
-    <t>ロールを追加、変更したい参加者のロールの アイコンをクリックします</t>
-  </si>
-  <si>
     <t>participant4.png</t>
   </si>
   <si>
@@ -228,16 +134,9 @@
     <t>participant5.png</t>
   </si>
   <si>
-    <t>変更を保存する場合は アイコンをクリックし、変更をキャンセルする場合は×をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>participant6.png</t>
   </si>
   <si>
-    <t>参加者一覧画面でロールが変更されていることが確認できます。</t>
-  </si>
-  <si>
     <t>participant7.png</t>
   </si>
   <si>
@@ -254,19 +153,122 @@
     <t>participant9.png</t>
   </si>
   <si>
-    <t>グループ名を入力し、画面下の［変更を保存する］をクリックします
-引き続いて次項ではグループメンバーの登録方法を説明します。</t>
-  </si>
-  <si>
     <t>participant10.png</t>
   </si>
   <si>
-    <t>ここではグループメンバーを手動登録する方法を説明します。
-左側のボックスでメンバーを登録したいグループをクリックして選択し、右側のボックス下の［ユーザを追加/削除する］をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>participant12.png</t>
+  </si>
+  <si>
+    <t>participant13.png</t>
+  </si>
+  <si>
+    <t>画面左下の［グループに戻る］をクリックして確認します</t>
+  </si>
+  <si>
+    <t>participant14.png</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _コース管理の基本操作</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コーステンプレートを選択する</t>
+  </si>
+  <si>
+    <t>コースの編集をする</t>
+  </si>
+  <si>
+    <t>コースの参加者を確認する</t>
+  </si>
+  <si>
+    <t>コースにTAを登録する</t>
+  </si>
+  <si>
+    <t>コースに教員や学生支援職員を登録する</t>
+  </si>
+  <si>
+    <t>グループを追加する</t>
+  </si>
+  <si>
+    <t>グループにユーザを追加する</t>
+  </si>
+  <si>
+    <t>広大moodle マニュアル guide41-course</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="edit mode"&gt;&lt;/a&gt;編集モード&lt;/h3&gt;</t>
+    <rPh sb="28" eb="30">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="course setting"&gt;&lt;/a&gt;コース設定&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コース管理の基本操作&lt;/h3&gt;&lt;br&gt;
+【編集中】&lt;br &gt;</t>
+    <rPh sb="27" eb="28">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="section"&gt;&lt;/a&gt;セクション&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースナビの［参加者］をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択内容を確認して、［選択したユーザおよびコーホートを登録する］をクリックします</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロールを追加、変更したい参加者のロールの鉛筆アイコンをクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更を保存する場合はフロッピーアイコンをクリックし、変更をキャンセルする場合は×をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループを手動で作成する方法を説明します。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -321,114 +323,134 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>削除する場合は左側のボックスで削除するユーザをクリックして選択し、［削除</t>
+      <t>削除する場合は左側のボックスで削除するユーザをクリックして選択し、［削除］をクリックしま</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Segoe UI Emoji"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
+        <charset val="128"/>
       </rPr>
-      <t>］をクリックしま</t>
+      <t>す</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>participant13.png</t>
-  </si>
-  <si>
-    <t>画面左下の［グループに戻る］をクリックして確認します</t>
-  </si>
-  <si>
-    <t>participant14.png</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>広大moodle 教職員向けマニュアル _コース管理の基本操作</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
+    <t>ここではグループメンバーを手動登録する方法を説明します
+左側のボックスでメンバーを登録したいグループをクリックして選択し、右側のボックス下の［ユーザを追加/削除する］をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループ名を入力し、画面下の［変更を保存する］をクリックします
+引き続いて次項ではグループメンバーの登録方法を説明します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moodle のコースでは学生をグループ分けすることができます。そうすることで、グループワークをさせたり、グループごとに異なる教材を提示したりすることが可能です
+ここではグループ作成の方法をご説明します
+グループでは、メンバー間での共同作業をしたり、異なるグループのメンバーやその提出やフォーラム投稿を見えなくするなどの作用があります</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参加者一覧画面でロールが変更されていることが確認できます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「もみじ」と連携したコースであれば、主担当教員、副担当教員、世話教員、履修登録した学生は自動的に登録されますが、TA や授業を補助する職員は自動登録されません
+したがって、TA や授業を補助する職員は、教員がコースで登録する必要があります
+ここではその登録方法を説明します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コースに登録されている学生・教職員には、コースロールが割り当てられます。このコースロールによって、各人がコースで何ができるのかが決まります
+広大 moodle に用意されているコースロールは、以下の通りです
+・主担当教員
+・世話教員
+・副担当教員
+・学生支援職員
+・ＴＡ
+・ＴＡ（作成補助）
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コースナビにある［参加者］をクリックすると、コースに登録されている学生・教職員を一覧することができます
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一括作成されたコースの名称等は以下のルールに従ってつけられています
+コース名：授業名＋半角 SP＋年度＋半角 SP＋時間割コード(英数字 8 ケタ)となります
+例）「情報メディア演習B 2023 82080002（テスト）」
+コース省略名：年度(数字 4 桁)_部局コード(数字 2 桁)_時間割コード(英数字 8 ケタ)となります
+例）「2023_23_82080002」
+コースカテゴリ：2023 年の直下ではなく下位のコースカテゴリと紐づけてください
+コース ID ナンバー：編集できません</t>
+    <rPh sb="84" eb="86">
+      <t>ジョウホウ</t>
     </rPh>
-    <rPh sb="9" eb="12">
-      <t>キョウショクイン</t>
+    <rPh sb="90" eb="92">
+      <t>エンシュウ</t>
     </rPh>
-    <rPh sb="24" eb="26">
-      <t>カンリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースの名前や開講期間などを変更することができます
+コース名の下にある横一列のメニュー（コースナビ）で［設定］をクリックしてください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新しいセクションのデフォルトの名前は「トピック n」（そのコースの n 番目のセクションの場合）で、開いた状態で作成されます
+またセクションの中にはサブセクションを作成することもできます
+授業回ごと、単元ごとなどに教材を分類するなど、お好みの方法でご利用ください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[+ セクションを追加する]をクリックすると、セクションを追加することができます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セクション名の左横の右向きの三角は、このセクションが折りたたまれていることを表しています。クリックすると開くことができます。セクション名をクリックすると、セクションの中を見ることができます。また折りたたまれたセクションは、フォルダのように扱うことができます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定した内容がコースに反映されます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ セクション名のボックスがグレーになっている時は、カスタムをチェックすると変更できます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はじめに用意されているセクションの名前を変更したい場合は、セクション名の右にある鉛筆アイコンをクリックして名前を入力し、エンターキーを押します。
+またセクション横にある点が縦に３つ並んでいるメニュー（三点メニュー）をクリックして［セクションを編集する］を選択し、名称変更の他、説明文を加えることもできます</t>
+    <rPh sb="100" eb="102">
+      <t>サンテン</t>
     </rPh>
-    <rPh sb="27" eb="29">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;コース管理の基本操作&lt;/h3&gt;&lt;br&gt;
-【要編集】&lt;br &gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コーステンプレートを選択する</t>
-  </si>
-  <si>
-    <t>はじめてコースを開くと、いくつかのコーステンプレートからコースフォーマットを選択するように求められます。好みのコーステンプレートを選択してください。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コースの編集をする</t>
-  </si>
-  <si>
-    <t>コースの参加者を確認する</t>
-  </si>
-  <si>
-    <t>コースにTAを登録する</t>
-  </si>
-  <si>
-    <t>コースに教員や学生支援職員を登録する</t>
-  </si>
-  <si>
-    <t>グループを追加する</t>
-  </si>
-  <si>
-    <t>グループにユーザを追加する</t>
-  </si>
-  <si>
-    <t>ここではグループを手動で作成する方法を説明します。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大moodle マニュアル guide41-course</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="edit mode"&gt;&lt;/a&gt;編集モード&lt;/h3&gt;</t>
-    <rPh sb="28" eb="30">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="course setting"&gt;&lt;/a&gt;コース設定&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「もみじ」と連携したコースであれば、主担当教員、副担当教員、世話教員、履修登録した学生は自動的に登録されますが、TA や授業を補助する職員は自動登録されません。したがって、TA や授業を補助する職員は、教員がコースで登録する必要があります。
-ここではその登録方法を説明します。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>moodle のコースでは学生をグループ分けすることができます。そうすることで、グループワークをさせたり、グループごとに異なる教材を提示したりすることが可能です。
-ここではグループ作成の方法をご説明します。
-グループでは、メンバー間での共同作業をしたり、異なるグループのメンバーやその提出やフォーラム投稿を見えなくするなどの作用があります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>提供する教材を整理するために用意されている領域をセクションと呼びます
+編集モードを開始すると、セクションを編集したり、追加することができるようになります</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集モードを OFF にする時は、［編集モード］をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集モードになると画面上に編集アイコンなどが表示されます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースに資料を掲載したり、課題や小テストを作成したりするためには、画面右上の［編集モード］をクリックして、編集モードを ON にする必要があります</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はじめてコースを開くと、いくつかのコーステンプレートからコースフォーマットを選択するように求められます
+好みのコーステンプレートを選択してください</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -436,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,12 +517,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック "/>
       <family val="3"/>
@@ -555,7 +571,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -881,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC74272D-8777-4FE7-835C-9D885C3D846F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -904,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="37.5">
@@ -912,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -922,12 +938,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27">
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -945,7 +961,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -960,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -976,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -990,7 +1006,7 @@
     <row r="6" spans="1:7" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1036,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FA534F-CDD8-4B82-B6F5-2AEC7D53530C}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1054,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1070,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1084,7 +1100,7 @@
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1093,33 +1109,33 @@
     <row r="7" spans="1:7" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1"/>
       <c r="G9" s="6"/>
@@ -1127,153 +1143,144 @@
     <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="40.5">
+    <row r="11" spans="1:7" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="54">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="40.5">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="40.5">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="40.5">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="40.5">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="40.5">
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="27">
+        <v>70</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="108">
       <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
-        <v>31</v>
+      <c r="B21" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="108">
-      <c r="A22" s="1"/>
-      <c r="B22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1297,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1313,7 +1320,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1327,19 +1334,19 @@
     <row r="6" spans="1:4" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="135">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -1356,7 +1363,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1371,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1387,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1398,10 +1405,10 @@
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="40.5">
+    <row r="6" spans="1:4" ht="54">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1409,45 +1416,45 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="27">
       <c r="B10" s="8" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1469,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1477,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1493,7 +1500,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1506,46 +1513,46 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +1567,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1575,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1591,7 +1598,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1604,56 +1611,56 @@
     </row>
     <row r="6" spans="1:4" ht="67.5">
       <c r="B6" s="8" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="8" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="8" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="B11" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1667,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1683,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1699,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1712,17 +1719,17 @@
     </row>
     <row r="6" spans="1:7" ht="27">
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="27">
       <c r="B7" s="8" t="s">
         <v>61</v>
       </c>
@@ -1730,19 +1737,19 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="9" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6"/>
     </row>

--- a/guide41_course.xlsx
+++ b/guide41_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DD8A86-5664-424A-86FE-B0731D380F0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64BDF5C-4758-4951-99F9-44070907A1F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="17295" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="17295" activeTab="6" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -138,10 +138,6 @@
   </si>
   <si>
     <t>participant7.png</t>
-  </si>
-  <si>
-    <t>右上の歯車マークをクリックし、表示されたメニューで［グループ］をクリックします</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>participant8.png</t>
@@ -451,6 +447,16 @@
   <si>
     <t>はじめてコースを開くと、いくつかのコーステンプレートからコースフォーマットを選択するように求められます
 好みのコーステンプレートを選択してください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左上の選択欄をクリックし、［グループ］をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>センタクラン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -897,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC74272D-8777-4FE7-835C-9D885C3D846F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -920,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="37.5">
@@ -928,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -938,12 +944,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27">
       <c r="B6" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -976,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -992,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1006,7 +1012,7 @@
     <row r="6" spans="1:7" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1070,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1086,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1100,7 +1106,7 @@
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1109,7 +1115,7 @@
     <row r="7" spans="1:7" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
@@ -1122,7 +1128,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -1135,7 +1141,7 @@
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1"/>
       <c r="G9" s="6"/>
@@ -1143,7 +1149,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1152,7 +1158,7 @@
     <row r="11" spans="1:7" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
@@ -1165,7 +1171,7 @@
     <row r="12" spans="1:7" ht="54">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -1178,7 +1184,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
@@ -1191,7 +1197,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -1200,7 +1206,7 @@
     <row r="15" spans="1:7" ht="40.5">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>6</v>
@@ -1224,7 +1230,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>6</v>
@@ -1237,7 +1243,7 @@
     <row r="18" spans="1:7" ht="40.5">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
@@ -1250,13 +1256,13 @@
     <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>6</v>
@@ -1268,7 +1274,7 @@
     <row r="21" spans="1:7" ht="108">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>6</v>
@@ -1304,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1320,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1334,7 +1340,7 @@
     <row r="6" spans="1:4" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -1346,7 +1352,7 @@
     <row r="7" spans="1:4" ht="135">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -1363,7 +1369,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1378,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1394,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1408,7 +1414,7 @@
     <row r="6" spans="1:4" ht="54">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1416,7 +1422,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -1448,7 +1454,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
@@ -1484,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1500,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1513,7 +1519,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -1535,7 +1541,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -1546,7 +1552,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
@@ -1566,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1582,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1598,7 +1604,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1611,62 +1617,62 @@
     </row>
     <row r="6" spans="1:4" ht="67.5">
       <c r="B6" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="B11" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1690,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1706,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1719,37 +1725,37 @@
     </row>
     <row r="6" spans="1:7" ht="27">
       <c r="B6" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="27">
       <c r="B7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="G8" s="6"/>
     </row>

--- a/guide41_course.xlsx
+++ b/guide41_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64BDF5C-4758-4951-99F9-44070907A1F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D804FEF-CA60-4C75-A4A3-4778AAC1FA66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="17295" activeTab="6" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="17295" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -260,10 +260,6 @@
   </si>
   <si>
     <t>変更を保存する場合はフロッピーアイコンをクリックし、変更をキャンセルする場合は×をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>グループを手動で作成する方法を説明します。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -457,6 +453,10 @@
     <rPh sb="3" eb="6">
       <t>センタクラン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループを手動で作成する方法を説明します</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -903,9 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC74272D-8777-4FE7-835C-9D885C3D846F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1012,7 +1010,7 @@
     <row r="6" spans="1:7" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1115,7 +1113,7 @@
     <row r="7" spans="1:7" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
@@ -1128,7 +1126,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -1141,7 +1139,7 @@
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1"/>
       <c r="G9" s="6"/>
@@ -1158,7 +1156,7 @@
     <row r="11" spans="1:7" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
@@ -1171,7 +1169,7 @@
     <row r="12" spans="1:7" ht="54">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -1184,7 +1182,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
@@ -1197,7 +1195,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -1206,7 +1204,7 @@
     <row r="15" spans="1:7" ht="40.5">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>6</v>
@@ -1230,7 +1228,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>6</v>
@@ -1243,7 +1241,7 @@
     <row r="18" spans="1:7" ht="40.5">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
@@ -1262,7 +1260,7 @@
     <row r="20" spans="1:7" ht="27">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>6</v>
@@ -1274,7 +1272,7 @@
     <row r="21" spans="1:7" ht="108">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>6</v>
@@ -1340,7 +1338,7 @@
     <row r="6" spans="1:4" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -1352,7 +1350,7 @@
     <row r="7" spans="1:4" ht="135">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -1414,7 +1412,7 @@
     <row r="6" spans="1:4" ht="54">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1552,7 +1550,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
@@ -1572,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1617,14 +1615,14 @@
     </row>
     <row r="6" spans="1:4" ht="67.5">
       <c r="B6" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="8" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -1638,7 +1636,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
@@ -1660,7 +1658,7 @@
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="B11" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
@@ -1725,7 +1723,7 @@
     </row>
     <row r="6" spans="1:7" ht="27">
       <c r="B6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -1737,7 +1735,7 @@
     </row>
     <row r="7" spans="1:7" ht="27">
       <c r="B7" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>

--- a/guide41_course.xlsx
+++ b/guide41_course.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D804FEF-CA60-4C75-A4A3-4778AAC1FA66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE2FE4E-5C69-4572-B50A-452EA56473F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="17295" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
     <sheet name="p1" sheetId="1" r:id="rId2"/>
     <sheet name="p2" sheetId="3" r:id="rId3"/>
-    <sheet name="p3" sheetId="4" r:id="rId4"/>
-    <sheet name="p4" sheetId="5" r:id="rId5"/>
-    <sheet name="p5" sheetId="6" r:id="rId6"/>
-    <sheet name="p6" sheetId="7" r:id="rId7"/>
-    <sheet name="p7" sheetId="8" r:id="rId8"/>
+    <sheet name="p3" sheetId="9" r:id="rId4"/>
+    <sheet name="p4" sheetId="4" r:id="rId5"/>
+    <sheet name="p5" sheetId="5" r:id="rId6"/>
+    <sheet name="p6" sheetId="6" r:id="rId7"/>
+    <sheet name="p7" sheetId="7" r:id="rId8"/>
+    <sheet name="p8" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
   <si>
     <t>header1</t>
   </si>
@@ -189,9 +190,6 @@
     <t>コーステンプレートを選択する</t>
   </si>
   <si>
-    <t>コースの編集をする</t>
-  </si>
-  <si>
     <t>コースの参加者を確認する</t>
   </si>
   <si>
@@ -218,10 +216,6 @@
     <rPh sb="28" eb="30">
       <t>ヘンシュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="course setting"&gt;&lt;/a&gt;コース設定&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -458,6 +452,124 @@
   <si>
     <t>グループを手動で作成する方法を説明します</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースの編集をする：編集モード，セクション</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースの名前や開講期間等を変更する：設定</t>
+    <rPh sb="11" eb="12">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="course setting"&gt;&lt;/a&gt;設定&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="section"&gt;&lt;/a&gt;セクションをページ内表示にする&lt;/h3&gt;</t>
+    <rPh sb="35" eb="36">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セクションの表示方法は、「セクションをページ内表示にする」方法と「セクションのページを別に作ってそのリンクを表示する」方法の2種類があります。
+授業用コーステンプレートである「8 sections」と「15 sections」を選択すると、テンプレート内の8(もしくは15)sectionは、デフォルトでは「セクションのページを別に作ってそのリンクを表示する」方法で表示されています。
+※ただし、新たに追加したセクションは、「セクションをページ内表示にする」方法で表示されます。</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>ジュギョウヨウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「セクションをページ内表示にする」には、[編集モード]をONにした状態で、ページ内表示にしたいセクションの三点メニューをクリックし、[ページ内に表示]をクリックします</t>
+    <rPh sb="21" eb="23">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サンテン</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>反対に、「セクションのページを別に作ってそのリンクを表示する」には、セクションの三点メニューをクリックし、[リンクとして表示]をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>ハンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>course12.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>course13.png</t>
+  </si>
+  <si>
+    <t>course14.png</t>
+  </si>
+  <si>
+    <t>course15.png</t>
   </si>
 </sst>
 </file>
@@ -903,7 +1015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC74272D-8777-4FE7-835C-9D885C3D846F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -942,12 +1056,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27">
       <c r="B6" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -965,7 +1079,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -996,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1010,7 +1124,7 @@
     <row r="6" spans="1:7" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1056,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FA534F-CDD8-4B82-B6F5-2AEC7D53530C}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1074,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1090,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1104,7 +1218,7 @@
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1113,7 +1227,7 @@
     <row r="7" spans="1:7" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
@@ -1126,7 +1240,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -1139,146 +1253,176 @@
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="27">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="54">
+    <row r="12" spans="1:7" ht="27">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="54">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="40.5">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="40.5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="40.5">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="40.5">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="27">
+        <v>67</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
-      <c r="B20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="108">
-      <c r="A21" s="1"/>
-      <c r="B21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>20</v>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="81">
+      <c r="B22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="3"/>
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="27">
+      <c r="B24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="27">
+      <c r="B25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1289,6 +1433,90 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60C4D1C-58FD-4AED-BC2C-C80FEA49CAA7}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="108">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1308,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1324,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1338,7 +1566,7 @@
     <row r="6" spans="1:4" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -1350,7 +1578,7 @@
     <row r="7" spans="1:4" ht="135">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -1362,7 +1590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1382,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1398,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1412,7 +1640,7 @@
     <row r="6" spans="1:4" ht="54">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1420,7 +1648,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -1452,7 +1680,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
@@ -1468,7 +1696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550A206-2A47-42FD-A6A0-0D0BE341BE00}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1488,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1504,7 +1732,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1517,7 +1745,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -1539,7 +1767,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -1550,7 +1778,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
@@ -1566,7 +1794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1586,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1602,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1615,28 +1843,28 @@
     </row>
     <row r="6" spans="1:4" ht="67.5">
       <c r="B6" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
@@ -1658,7 +1886,7 @@
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="B11" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
@@ -1674,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -1694,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1710,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1723,7 +1951,7 @@
     </row>
     <row r="6" spans="1:7" ht="27">
       <c r="B6" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -1735,7 +1963,7 @@
     </row>
     <row r="7" spans="1:7" ht="27">
       <c r="B7" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>

--- a/guide41_course.xlsx
+++ b/guide41_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE2FE4E-5C69-4572-B50A-452EA56473F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB545FB0-C4A5-4FE4-A8A5-C0C27D2AD508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>header1</t>
   </si>
@@ -485,48 +485,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>セクションの表示方法は、「セクションをページ内表示にする」方法と「セクションのページを別に作ってそのリンクを表示する」方法の2種類があります。
-授業用コーステンプレートである「8 sections」と「15 sections」を選択すると、テンプレート内の8(もしくは15)sectionは、デフォルトでは「セクションのページを別に作ってそのリンクを表示する」方法で表示されています。
-※ただし、新たに追加したセクションは、「セクションをページ内表示にする」方法で表示されます。</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="73" eb="76">
-      <t>ジュギョウヨウ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="199" eb="200">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="202" eb="204">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「セクションをページ内表示にする」には、[編集モード]をONにした状態で、ページ内表示にしたいセクションの三点メニューをクリックし、[ページ内に表示]をクリックします</t>
     <rPh sb="21" eb="23">
       <t>ヘンシュウ</t>
@@ -559,17 +517,53 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>course13.png</t>
+  </si>
+  <si>
+    <t>course14.png</t>
+  </si>
+  <si>
+    <t>course15.png</t>
+  </si>
+  <si>
     <t>course12.png</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>course13.png</t>
-  </si>
-  <si>
-    <t>course14.png</t>
-  </si>
-  <si>
-    <t>course15.png</t>
+    <t>セクションの表示方法は、「セクションをページ内表示にする」方法と「セクションのページを別に作ってそのリンクを表示する」方法の2種類があります。
+授業用コーステンプレートである「8 sections」と「15 sections」を選択すると、テンプレート内の8(もしくは15)sectionは、デフォルトでは「セクションのページを別に作ってそのリンクを表示する」方法で表示されています。</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>ジュギョウヨウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ただし、新たに追加したセクションは、「セクションをページ内表示にする」方法で表示されます。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1173,7 +1167,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1383,46 +1377,48 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="81">
+    <row r="22" spans="1:7" ht="67.5">
       <c r="B22" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="27">
       <c r="B24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27">
       <c r="B25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/guide41_course.xlsx
+++ b/guide41_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB545FB0-C4A5-4FE4-A8A5-C0C27D2AD508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C7B95C-53F6-4CFC-B6E5-7E4604D25F82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
   <si>
     <t>header1</t>
   </si>
@@ -475,16 +475,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="section"&gt;&lt;/a&gt;セクションをページ内表示にする&lt;/h3&gt;</t>
-    <rPh sb="35" eb="36">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「セクションをページ内表示にする」には、[編集モード]をONにした状態で、ページ内表示にしたいセクションの三点メニューをクリックし、[ページ内に表示]をクリックします</t>
     <rPh sb="21" eb="23">
       <t>ヘンシュウ</t>
@@ -530,8 +520,25 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>セクションの表示方法は、「セクションをページ内表示にする」方法と「セクションのページを別に作ってそのリンクを表示する」方法の2種類があります。
-授業用コーステンプレートである「8 sections」と「15 sections」を選択すると、テンプレート内の8(もしくは15)sectionは、デフォルトでは「セクションのページを別に作ってそのリンクを表示する」方法で表示されています。</t>
+    <t>※ただし、新たに追加したセクションは、「セクションをページ内表示にする」方法で表示されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="section"&gt;&lt;/a&gt;セクションの表示方法&lt;/h3&gt;</t>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>授業用コーステンプレートである「8 sections」と「15 sections」を選択すると、テンプレート内の8(もしくは15)sectionは、デフォルトでは「セクションのページを別に作ってそのリンクを表示する」方法で表示されています。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セクションの表示方法は、「セクションをページ内表示にする」方法と「セクションのページを別に作ってそのリンクを表示する」方法の2種類があります。</t>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
@@ -547,22 +554,6 @@
     <rPh sb="63" eb="65">
       <t>シュルイ</t>
     </rPh>
-    <rPh sb="73" eb="76">
-      <t>ジュギョウヨウ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※ただし、新たに追加したセクションは、「セクションをページ内表示にする」方法で表示されます。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1164,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FA534F-CDD8-4B82-B6F5-2AEC7D53530C}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1374,21 +1365,17 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="67.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="27">
       <c r="B22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>92</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="27">
       <c r="B23" s="3" t="s">
         <v>91</v>
       </c>
@@ -1396,29 +1383,40 @@
         <v>6</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="27">
-      <c r="B24" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27">
       <c r="B25" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="27">
+      <c r="B26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/guide41_course.xlsx
+++ b/guide41_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C7B95C-53F6-4CFC-B6E5-7E4604D25F82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92329F9E-768E-49F7-8A92-DD01CD66D2DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
@@ -524,16 +524,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="section"&gt;&lt;/a&gt;セクションの表示方法&lt;/h3&gt;</t>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>授業用コーステンプレートである「8 sections」と「15 sections」を選択すると、テンプレート内の8(もしくは15)sectionは、デフォルトでは「セクションのページを別に作ってそのリンクを表示する」方法で表示されています。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -553,6 +543,16 @@
     </rPh>
     <rPh sb="63" eb="65">
       <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="sectiontype"&gt;&lt;/a&gt;セクションの表示方法&lt;/h3&gt;</t>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1365,19 +1365,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="27">
       <c r="B22" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="27">
       <c r="B23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>6</v>

--- a/guide41_course.xlsx
+++ b/guide41_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92329F9E-768E-49F7-8A92-DD01CD66D2DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537C2D25-5259-45F8-AA5B-13B9F9FAE2AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="8" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -188,15 +188,6 @@
   </si>
   <si>
     <t>コーステンプレートを選択する</t>
-  </si>
-  <si>
-    <t>コースの参加者を確認する</t>
-  </si>
-  <si>
-    <t>コースにTAを登録する</t>
-  </si>
-  <si>
-    <t>コースに教員や学生支援職員を登録する</t>
   </si>
   <si>
     <t>グループを追加する</t>
@@ -553,6 +544,30 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースの参加者を確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースにTAや学生支援職員を登録する</t>
+    <rPh sb="7" eb="11">
+      <t>ガクセイシエン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロールの追加，変更をする</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1041,12 +1056,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27">
       <c r="B6" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1095,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1109,7 +1124,7 @@
     <row r="6" spans="1:7" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1157,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FA534F-CDD8-4B82-B6F5-2AEC7D53530C}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1173,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1189,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1203,7 +1218,7 @@
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1212,7 +1227,7 @@
     <row r="7" spans="1:7" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
@@ -1225,7 +1240,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -1238,7 +1253,7 @@
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1"/>
       <c r="G9" s="6"/>
@@ -1252,7 +1267,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1261,7 +1276,7 @@
     <row r="12" spans="1:7" ht="27">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -1274,7 +1289,7 @@
     <row r="13" spans="1:7" ht="54">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
@@ -1287,7 +1302,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>6</v>
@@ -1300,7 +1315,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -1309,7 +1324,7 @@
     <row r="16" spans="1:7" ht="40.5">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>6</v>
@@ -1333,7 +1348,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
@@ -1346,7 +1361,7 @@
     <row r="19" spans="1:7" ht="40.5">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>6</v>
@@ -1365,58 +1380,58 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="27">
       <c r="B22" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="27">
       <c r="B23" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27">
       <c r="B25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="27">
       <c r="B26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1462,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1476,13 +1491,13 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
@@ -1494,7 +1509,7 @@
     <row r="8" spans="1:4" ht="108">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -1530,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1546,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1560,7 +1575,7 @@
     <row r="6" spans="1:4" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -1572,7 +1587,7 @@
     <row r="7" spans="1:4" ht="135">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -1587,6 +1602,112 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
   <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="54">
+      <c r="A6" s="1"/>
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="27">
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550A206-2A47-42FD-A6A0-0D0BE341BE00}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -1604,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1620,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1631,115 +1752,9 @@
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="54">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="27">
-      <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550A206-2A47-42FD-A6A0-0D0BE341BE00}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-    </row>
     <row r="6" spans="1:4">
       <c r="B6" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -1761,7 +1776,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -1772,7 +1787,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
@@ -1808,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1824,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1837,28 +1852,28 @@
     </row>
     <row r="6" spans="1:4" ht="67.5">
       <c r="B6" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
@@ -1880,7 +1895,7 @@
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="B11" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
@@ -1900,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1916,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1932,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1945,7 +1960,7 @@
     </row>
     <row r="6" spans="1:7" ht="27">
       <c r="B6" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -1957,7 +1972,7 @@
     </row>
     <row r="7" spans="1:7" ht="27">
       <c r="B7" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>

--- a/guide41_course.xlsx
+++ b/guide41_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537C2D25-5259-45F8-AA5B-13B9F9FAE2AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615B0535-960B-48AA-AF29-6BA0418C40B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="8" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="6" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -562,7 +562,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ロールの追加，変更をする</t>
+    <t>ロールの追加・変更をする</t>
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
     </rPh>
@@ -1709,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550A206-2A47-42FD-A6A0-0D0BE341BE00}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1915,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/guide41_course.xlsx
+++ b/guide41_course.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615B0535-960B-48AA-AF29-6BA0418C40B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F30BD57-128D-4177-9A98-74FCBFBF1B13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="6" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="8" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
   <si>
     <t>header1</t>
   </si>
@@ -315,11 +315,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ここではグループメンバーを手動登録する方法を説明します
-左側のボックスでメンバーを登録したいグループをクリックして選択し、右側のボックス下の［ユーザを追加/削除する］をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>グループ名を入力し、画面下の［変更を保存する］をクリックします
 引き続いて次項ではグループメンバーの登録方法を説明します</t>
     <phoneticPr fontId="2"/>
@@ -569,6 +564,14 @@
     <rPh sb="7" eb="9">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここではグループメンバーを手動登録する方法を説明します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左側のボックスでメンバーを登録したいグループをクリックして選択し、右側のボックス下の［ユーザを追加/削除する］をクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1076,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AAC137-94F7-4C20-9279-DE89D329BEF5}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1117,49 +1120,45 @@
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="27">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="27">
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="G9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1173,7 +1172,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1188,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1227,7 +1226,7 @@
     <row r="7" spans="1:7" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
@@ -1240,7 +1239,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -1253,7 +1252,7 @@
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1"/>
       <c r="G9" s="6"/>
@@ -1276,7 +1275,7 @@
     <row r="12" spans="1:7" ht="27">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -1289,7 +1288,7 @@
     <row r="13" spans="1:7" ht="54">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
@@ -1302,7 +1301,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>6</v>
@@ -1315,7 +1314,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -1324,7 +1323,7 @@
     <row r="16" spans="1:7" ht="40.5">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>6</v>
@@ -1348,7 +1347,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
@@ -1361,7 +1360,7 @@
     <row r="19" spans="1:7" ht="40.5">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>6</v>
@@ -1380,58 +1379,58 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="27">
       <c r="B22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="27">
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27">
       <c r="B25" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="27">
       <c r="B26" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1491,13 +1490,13 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
@@ -1509,7 +1508,7 @@
     <row r="8" spans="1:4" ht="108">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -1545,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1575,7 +1574,7 @@
     <row r="6" spans="1:4" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -1587,7 +1586,7 @@
     <row r="7" spans="1:4" ht="135">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -1601,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1619,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1642,59 +1641,55 @@
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="54">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="54">
+      <c r="B5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="27">
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="27">
+    <row r="10" spans="1:4">
       <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1709,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550A206-2A47-42FD-A6A0-0D0BE341BE00}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1725,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1787,7 +1782,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
@@ -1805,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1846,61 +1841,57 @@
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="67.5">
+    <row r="5" spans="1:4" ht="67.5">
+      <c r="B5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="8" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="8" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="8" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27">
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27">
-      <c r="B11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1915,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1956,11 +1947,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="27">
+      <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6" s="8" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
